--- a/DDAf_2024_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6230869F-257D-43E8-8550-EFFC64534232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D61C05-3E3B-43A3-B081-4AA47919FB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6559182D-B24D-40CE-A95D-A650FDAB6970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3867DDD-E69B-4096-9D2F-C07C9A483756}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -1682,25 +1682,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419EABF6-27DD-4C34-AD96-E4D614BD8D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA3CD6-6830-4854-A56F-DCF613D42568}">
   <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="153" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="153" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1715,7 +1715,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>2.2716142341359999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>-1.9143110861257</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>2.8330333973603299</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>19.015173373142598</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>26</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>0.21420023291314</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>1.65163444500919</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>0.82396231805705999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>32</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>34</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>1.6410370404201899</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>36</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>38</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0.17914762203019999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>40</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>42</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>44</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>46</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>48</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>52</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
         <v>34</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0.10596953031502999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>55</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>57</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>59</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>61</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>63</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>-4.0411496659382999</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>65</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>67</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>2.2278112015920102</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>69</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>71</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>0.17583551495856001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>73</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>75</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>77</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>79</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>81</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0.18909016742358001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>34</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>2.1714213826907098</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>84</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>5.3707470804061597</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>86</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>1.205840451559</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>88</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>90</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>92</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>6.0137315496923804</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>94</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>3.5387725844904199</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
         <v>34</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>3.66370334676806</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>97</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>2.5835265421704898</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>99</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>10.916952327929501</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>101</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>1.64822738732047</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>103</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>5.3969335695398701</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>105</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>107</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>109</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>111</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>8.3832111988067304</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>113</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>115</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>11.854416993049099</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>117</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>1.85719542058295</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>119</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>4.2384673263219197</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>121</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>22.219658328377399</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>123</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>125</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>4.1511340840536404</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55"/>
       <c r="B61" s="56" t="s">
         <v>127</v>
@@ -3993,7 +3993,7 @@
         <v>5.1386173238848096</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="93"/>
       <c r="B62" s="94" t="s">
         <v>128</v>
@@ -4029,7 +4029,7 @@
         <v>2.0921708191330199</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="93"/>
       <c r="B63" s="103" t="s">
         <v>129</v>
@@ -4065,7 +4065,7 @@
         <v>3.7693306021048398</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="112"/>
       <c r="B64" s="113" t="s">
         <v>130</v>
@@ -4101,7 +4101,7 @@
         <v>2.4148754221296098</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="112"/>
       <c r="B65" s="103" t="s">
         <v>131</v>
@@ -4137,7 +4137,7 @@
         <v>2.8936892721296998</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="112"/>
       <c r="B66" s="130" t="s">
         <v>132</v>
@@ -4173,7 +4173,7 @@
         <v>3.7490072849100402</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="112"/>
       <c r="B67" s="103" t="s">
         <v>133</v>
@@ -4209,7 +4209,7 @@
         <v>2.1400159900093301</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="112"/>
       <c r="B68" s="103" t="s">
         <v>134</v>
@@ -4245,7 +4245,7 @@
         <v>4.3732707937223303</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="112"/>
       <c r="B69" s="103" t="s">
         <v>135</v>
@@ -4281,7 +4281,7 @@
         <v>-3.4843022781727</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="112"/>
       <c r="B70" s="103" t="s">
         <v>136</v>
@@ -4317,7 +4317,7 @@
         <v>1.6913103497097299</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="112"/>
       <c r="B71" s="103" t="s">
         <v>137</v>
@@ -4353,7 +4353,7 @@
         <v>5.1386173238848096</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="112"/>
       <c r="B72" s="103" t="s">
         <v>138</v>
@@ -4389,7 +4389,7 @@
         <v>-3.6285583150638998</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="112"/>
       <c r="B73" s="103" t="s">
         <v>139</v>
@@ -4425,7 +4425,7 @@
         <v>1.94599556927998</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="112"/>
       <c r="B74" s="103" t="s">
         <v>139</v>
@@ -4461,7 +4461,7 @@
         <v>5.6989449055346597</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="112"/>
       <c r="B75" s="103" t="s">
         <v>140</v>
@@ -4497,7 +4497,7 @@
         <v>2.4572915599825502</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="112"/>
       <c r="B76" s="139" t="s">
         <v>141</v>
@@ -4533,7 +4533,7 @@
         <v>2.6998375482364798</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="112"/>
       <c r="B77" s="103" t="s">
         <v>142</v>
@@ -4569,7 +4569,7 @@
         <v>2.4463404321988702</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="112"/>
       <c r="B78" s="103" t="s">
         <v>142</v>
@@ -4605,7 +4605,7 @@
         <v>3.16335678108014</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="112"/>
       <c r="B79" s="130" t="s">
         <v>143</v>
@@ -4641,7 +4641,7 @@
         <v>3.7487616886763</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="112"/>
       <c r="B80" s="103" t="s">
         <v>144</v>
@@ -4677,7 +4677,7 @@
         <v>3.0412630763752801</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="112"/>
       <c r="B81" s="103" t="s">
         <v>145</v>
@@ -4713,7 +4713,7 @@
         <v>6.8381018502078597</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="112"/>
       <c r="B82" s="103" t="s">
         <v>146</v>
@@ -4749,7 +4749,7 @@
         <v>2.0782540190715499</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="112"/>
       <c r="B83" s="103" t="s">
         <v>147</v>
@@ -4785,7 +4785,7 @@
         <v>3.72201777255543</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="112"/>
       <c r="B84" s="139" t="s">
         <v>148</v>
@@ -4821,7 +4821,7 @@
         <v>3.5296139169619098</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="112"/>
       <c r="B85" s="148" t="s">
         <v>149</v>
@@ -4857,7 +4857,7 @@
         <v>4.4928122358499998E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="112"/>
       <c r="B86" s="103" t="s">
         <v>150</v>
@@ -4893,7 +4893,7 @@
         <v>3.6278835437466701</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="112"/>
       <c r="B87" s="103" t="s">
         <v>151</v>
@@ -4929,7 +4929,7 @@
         <v>2.9695542475760099</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="112"/>
       <c r="B88" s="103" t="s">
         <v>152</v>
@@ -4965,7 +4965,7 @@
         <v>1.95324293575895</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="112"/>
       <c r="B89" s="103" t="s">
         <v>153</v>
@@ -5001,7 +5001,7 @@
         <v>3.6401765196380298</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="112"/>
       <c r="B90" s="130" t="s">
         <v>154</v>
@@ -5037,7 +5037,7 @@
         <v>3.7791801413514201</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="112"/>
       <c r="B91" s="103" t="s">
         <v>155</v>
@@ -5073,7 +5073,7 @@
         <v>4.08106749083721</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="112"/>
       <c r="B92" s="103" t="s">
         <v>156</v>
@@ -5109,7 +5109,7 @@
         <v>3.8683507685321099</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="112"/>
       <c r="B93" s="103" t="s">
         <v>157</v>
@@ -5145,7 +5145,7 @@
         <v>2.2139923283576399</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="112"/>
       <c r="B94" s="103" t="s">
         <v>158</v>
@@ -5181,7 +5181,7 @@
         <v>2.1870440972238798</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="112"/>
       <c r="B95" s="103" t="s">
         <v>159</v>
@@ -5217,7 +5217,7 @@
         <v>0.72168376043090998</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="112"/>
       <c r="B96" s="103" t="s">
         <v>160</v>
@@ -5253,7 +5253,7 @@
         <v>1.32447366386932</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="112"/>
       <c r="B97" s="139" t="s">
         <v>161</v>
@@ -5289,7 +5289,7 @@
         <v>3.0860156484042398</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="112"/>
       <c r="B98" s="130" t="s">
         <v>162</v>
@@ -5325,7 +5325,7 @@
         <v>3.7483864031178298</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="149"/>
       <c r="B99" s="150"/>
       <c r="C99" s="108"/>
@@ -5339,7 +5339,7 @@
       <c r="K99" s="108"/>
       <c r="L99" s="108"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="K100" s="151"/>
       <c r="L100" s="151"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="K101" s="151"/>
       <c r="L101" s="151"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="K102" s="151"/>
       <c r="L102" s="151"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
@@ -5399,7 +5399,7 @@
       <c r="K103" s="151"/>
       <c r="L103" s="151"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="K104" s="151"/>
       <c r="L104" s="151"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>168</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="K105" s="151"/>
       <c r="L105" s="151"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>169</v>
       </c>
@@ -5444,7 +5444,7 @@
       <c r="K106" s="151"/>
       <c r="L106" s="151"/>
     </row>
-    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="152" t="s">
         <v>170</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="K107" s="151"/>
       <c r="L107" s="151"/>
     </row>
-    <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="152"/>
       <c r="C108" s="151"/>
       <c r="D108" s="151"/>
@@ -5472,7 +5472,7 @@
       <c r="K108" s="151"/>
       <c r="L108" s="151"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>172</v>
       </c>
@@ -5487,7 +5487,7 @@
       <c r="K109" s="151"/>
       <c r="L109" s="151"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>173</v>
       </c>
@@ -5502,7 +5502,7 @@
       <c r="K110" s="151"/>
       <c r="L110" s="151"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" s="154" t="s">
         <v>174</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="K111" s="151"/>
       <c r="L111" s="151"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="K112" s="151"/>
       <c r="L112" s="151"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="151"/>
       <c r="D113" s="151"/>
@@ -5545,7 +5545,7 @@
       <c r="K113" s="151"/>
       <c r="L113" s="151"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="151"/>
       <c r="D114" s="151"/>
@@ -5560,11 +5560,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{60E095F1-ADD1-4F4F-8BE0-F8D7823B10F8}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BDE963B1-FCD8-4002-A91F-29CC9B6BAD05}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{860BA962-EE46-426F-A805-964669DD5825}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{1C49E0AD-DCE5-4707-9C4C-4367FDF0846F}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{1D494790-025B-4736-AB68-85D324601711}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E8D47FA7-B0D8-493C-AE34-A7C4D096E20B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5E759A1D-8C7D-4410-8C85-6FEAF2691259}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{72CCA666-DDCC-4909-863F-D1205230584D}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{B0A81DA4-2997-441A-B801-24A0BDD7B549}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{A3E07712-DEBE-4FED-916B-2A014C872751}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D61C05-3E3B-43A3-B081-4AA47919FB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{100DC367-F713-4E13-A47B-9A8C4D546E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3867DDD-E69B-4096-9D2F-C07C9A483756}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{F1E20822-84EE-46FD-8DE0-D3969D361082}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -1365,8 +1365,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA3CD6-6830-4854-A56F-DCF613D42568}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C471DF-CB12-4FBA-9DCE-98634636FF4E}">
   <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1691,7 +1691,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="153" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="154" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -5503,7 +5503,7 @@
       <c r="L110" s="151"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="154" t="s">
+      <c r="B111" s="153" t="s">
         <v>174</v>
       </c>
       <c r="C111" s="151"/>
@@ -5518,7 +5518,7 @@
       <c r="L111" s="151"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="153" t="s">
         <v>171</v>
       </c>
       <c r="C112" s="151"/>
@@ -5560,11 +5560,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E8D47FA7-B0D8-493C-AE34-A7C4D096E20B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5E759A1D-8C7D-4410-8C85-6FEAF2691259}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{72CCA666-DDCC-4909-863F-D1205230584D}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{B0A81DA4-2997-441A-B801-24A0BDD7B549}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{A3E07712-DEBE-4FED-916B-2A014C872751}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1300E50E-BEE4-4FA6-A4D2-4C9DACDF774C}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A11EEA9E-AD4F-42D7-8BE5-F19A3E06FF61}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{AE52211D-3918-445B-B710-6DFDB94CC305}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{6E7D53F6-46E1-4B80-BCB2-840380C03739}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{E6F5C5B8-6E57-4370-AD9C-D13791666230}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{100DC367-F713-4E13-A47B-9A8C4D546E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1C80D4-5751-4535-BF5A-42053B83EA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{F1E20822-84EE-46FD-8DE0-D3969D361082}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D598B935-9EC7-4078-A333-07DC41E97296}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
   <si>
     <t>Tableau 22 : Retours sur investissements directs</t>
   </si>
@@ -461,13 +461,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1682,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C471DF-CB12-4FBA-9DCE-98634636FF4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04281D03-B131-4873-8D15-0C3547649F22}">
   <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4428,7 +4434,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="112"/>
       <c r="B74" s="103" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C74" s="122">
         <v>36.304593038702897</v>
@@ -4464,7 +4470,7 @@
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="112"/>
       <c r="B75" s="103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C75" s="104">
         <v>83.670313452022</v>
@@ -4500,7 +4506,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="112"/>
       <c r="B76" s="139" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C76" s="140">
         <v>80.320759731983898</v>
@@ -4536,7 +4542,7 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="112"/>
       <c r="B77" s="103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C77" s="122">
         <v>53.537130838403897</v>
@@ -4572,7 +4578,7 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="112"/>
       <c r="B78" s="103" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C78" s="122">
         <v>136.10656350179201</v>
@@ -4608,7 +4614,7 @@
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="112"/>
       <c r="B79" s="130" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C79" s="131">
         <v>79.257401399482006</v>
@@ -4644,7 +4650,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="112"/>
       <c r="B80" s="103" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C80" s="122">
         <v>21.414846682548301</v>
@@ -4680,7 +4686,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="112"/>
       <c r="B81" s="103" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C81" s="122">
         <v>39.495737510191901</v>
@@ -4716,7 +4722,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="112"/>
       <c r="B82" s="103" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C82" s="122">
         <v>51.737500293457401</v>
@@ -4752,7 +4758,7 @@
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="112"/>
       <c r="B83" s="103" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C83" s="104">
         <v>59.429062545774102</v>
@@ -4788,7 +4794,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="112"/>
       <c r="B84" s="139" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C84" s="140">
         <v>67.193430524175298</v>
@@ -4824,7 +4830,7 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="112"/>
       <c r="B85" s="148" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C85" s="122">
         <v>7.9071365083109804</v>
@@ -4860,7 +4866,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="112"/>
       <c r="B86" s="103" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C86" s="122">
         <v>29.811977193275201</v>
@@ -4896,7 +4902,7 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="112"/>
       <c r="B87" s="103" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C87" s="122">
         <v>19.830030510869001</v>
@@ -4932,7 +4938,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="112"/>
       <c r="B88" s="103" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C88" s="122">
         <v>127.385916919173</v>
@@ -4968,7 +4974,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="112"/>
       <c r="B89" s="103" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C89" s="122">
         <v>32.492983242647398</v>
@@ -5004,7 +5010,7 @@
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="112"/>
       <c r="B90" s="130" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C90" s="131">
         <v>87.048570195059298</v>
@@ -5040,7 +5046,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="112"/>
       <c r="B91" s="103" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C91" s="122">
         <v>54.027179064617499</v>
@@ -5076,7 +5082,7 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="112"/>
       <c r="B92" s="103" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C92" s="122">
         <v>12.8863401642838</v>
@@ -5112,7 +5118,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="112"/>
       <c r="B93" s="103" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C93" s="122">
         <v>2049.9254089958799</v>
@@ -5148,7 +5154,7 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="112"/>
       <c r="B94" s="103" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C94" s="122">
         <v>375.84251156873199</v>
@@ -5184,7 +5190,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="112"/>
       <c r="B95" s="103" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C95" s="122">
         <v>42.062070879041499</v>
@@ -5220,7 +5226,7 @@
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="112"/>
       <c r="B96" s="103" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C96" s="104">
         <v>54.749171279404202</v>
@@ -5256,7 +5262,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="112"/>
       <c r="B97" s="139" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C97" s="140">
         <v>30.2200099937711</v>
@@ -5292,7 +5298,7 @@
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="112"/>
       <c r="B98" s="130" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C98" s="131">
         <v>15.3972049750042</v>
@@ -5341,7 +5347,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C100" s="151"/>
       <c r="D100" s="151"/>
@@ -5356,7 +5362,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C101" s="151"/>
       <c r="D101" s="151"/>
@@ -5371,7 +5377,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C102" s="151"/>
       <c r="D102" s="151"/>
@@ -5386,7 +5392,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C103" s="151"/>
       <c r="D103" s="151"/>
@@ -5401,7 +5407,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C104" s="151"/>
       <c r="D104" s="151"/>
@@ -5416,7 +5422,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C105" s="151"/>
       <c r="D105" s="151"/>
@@ -5431,7 +5437,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C106" s="151"/>
       <c r="D106" s="151"/>
@@ -5446,7 +5452,7 @@
     </row>
     <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="152" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C107" s="151"/>
       <c r="D107" s="151"/>
@@ -5474,7 +5480,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C109" s="151"/>
       <c r="D109" s="151"/>
@@ -5489,7 +5495,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C110" s="151"/>
       <c r="D110" s="151"/>
@@ -5504,7 +5510,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" s="153" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C111" s="151"/>
       <c r="D111" s="151"/>
@@ -5519,7 +5525,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="153" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C112" s="151"/>
       <c r="D112" s="151"/>
@@ -5560,11 +5566,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1300E50E-BEE4-4FA6-A4D2-4C9DACDF774C}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A11EEA9E-AD4F-42D7-8BE5-F19A3E06FF61}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{AE52211D-3918-445B-B710-6DFDB94CC305}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6E7D53F6-46E1-4B80-BCB2-840380C03739}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{E6F5C5B8-6E57-4370-AD9C-D13791666230}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{74746805-4813-4005-8346-4B2A4AE598E7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{556D5CD4-5B15-41F5-AB09-5AA6CFBC0197}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{712C7CA0-7ACB-41CB-A2C6-30788E026942}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{FFB97892-7CDD-4231-8428-F8E831460C09}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{0E0E4F03-5AB6-462F-BAC5-A386D73A7CA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
